--- a/Modelos em Python/1 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
+++ b/Modelos em Python/1 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.14244463967633</v>
+        <v>19.1412446992765</v>
       </c>
       <c r="C11" t="n">
-        <v>60.20728855058422</v>
+        <v>60.18566047652833</v>
       </c>
       <c r="D11" t="n">
-        <v>67.35089281768408</v>
+        <v>67.43627564624038</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17.90126813918364</v>
+        <v>17.28450802926492</v>
       </c>
       <c r="C12" t="n">
-        <v>56.2181579204751</v>
+        <v>54.07133471293776</v>
       </c>
       <c r="D12" t="n">
-        <v>64.00852613963802</v>
+        <v>62.35059764414638</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.30923207152156</v>
+        <v>20.140364762667</v>
       </c>
       <c r="C13" t="n">
-        <v>60.87763277168355</v>
+        <v>63.96548259066266</v>
       </c>
       <c r="D13" t="n">
-        <v>68.00642177183242</v>
+        <v>70.28832120075337</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/1 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
+++ b/Modelos em Python/1 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.15280869229659</v>
+        <v>19.14353131752003</v>
       </c>
       <c r="C11" t="n">
-        <v>60.20983443843805</v>
+        <v>60.19145380480967</v>
       </c>
       <c r="D11" t="n">
-        <v>67.4424340951952</v>
+        <v>67.37231968533591</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/1 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
+++ b/Modelos em Python/1 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.09584548515831</v>
+        <v>0.0964463714015507</v>
       </c>
       <c r="C2" t="n">
-        <v>31.82523302200314</v>
+        <v>0.3056020712527899</v>
       </c>
       <c r="D2" t="n">
-        <v>41.27050589546143</v>
+        <v>0.4192431323412709</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.78497388523754</v>
+        <v>0.1184478346875757</v>
       </c>
       <c r="C3" t="n">
-        <v>44.36899360969264</v>
+        <v>0.3772538132144836</v>
       </c>
       <c r="D3" t="n">
-        <v>57.03546480425196</v>
+        <v>0.5129051816946476</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.18176600186323</v>
+        <v>0.09335119491811884</v>
       </c>
       <c r="C4" t="n">
-        <v>31.97912303716903</v>
+        <v>0.2957352413182927</v>
       </c>
       <c r="D4" t="n">
-        <v>41.79123066973138</v>
+        <v>0.4025288504646627</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.52936854489474</v>
+        <v>0.1016973620748439</v>
       </c>
       <c r="C5" t="n">
-        <v>33.28764300255139</v>
+        <v>0.3247039400627882</v>
       </c>
       <c r="D5" t="n">
-        <v>43.01059562765218</v>
+        <v>0.4353560914563882</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.52514716256228</v>
+        <v>0.09467623786538563</v>
       </c>
       <c r="C6" t="n">
-        <v>33.58013369878064</v>
+        <v>0.3017606712020957</v>
       </c>
       <c r="D6" t="n">
-        <v>43.08394172302886</v>
+        <v>0.4052559389370534</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.65989880924646</v>
+        <v>0.1052449961130977</v>
       </c>
       <c r="C7" t="n">
-        <v>37.17407319667863</v>
+        <v>0.3417212946909425</v>
       </c>
       <c r="D7" t="n">
-        <v>50.11313110822277</v>
+        <v>0.4504822434660082</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.77764267431497</v>
+        <v>0.1185768020217431</v>
       </c>
       <c r="C8" t="n">
-        <v>44.29635505422954</v>
+        <v>0.3775933969437297</v>
       </c>
       <c r="D8" t="n">
-        <v>57.08098239338641</v>
+        <v>0.5114418116827949</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.7650508141244</v>
+        <v>0.118343453820853</v>
       </c>
       <c r="C9" t="n">
-        <v>44.29100529813017</v>
+        <v>0.3770851945820034</v>
       </c>
       <c r="D9" t="n">
-        <v>56.65462017668544</v>
+        <v>0.5124735375327796</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.162235294773753</v>
+        <v>0.0154594213127475</v>
       </c>
       <c r="C10" t="n">
-        <v>9.797704700925999</v>
+        <v>0.06865072470528635</v>
       </c>
       <c r="D10" t="n">
-        <v>11.45379027593619</v>
+        <v>0.07716465633755977</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.14353131752003</v>
+        <v>0.1901771728960678</v>
       </c>
       <c r="C11" t="n">
-        <v>60.19145380480967</v>
+        <v>0.6236964805443831</v>
       </c>
       <c r="D11" t="n">
-        <v>67.37231968533591</v>
+        <v>0.6714566082228745</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17.28450802926492</v>
+        <v>0.1904012188493784</v>
       </c>
       <c r="C12" t="n">
-        <v>54.07133471293776</v>
+        <v>0.624077429162666</v>
       </c>
       <c r="D12" t="n">
-        <v>62.35059764414638</v>
+        <v>0.6733892497905689</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20.140364762667</v>
+        <v>0.1860357825938971</v>
       </c>
       <c r="C13" t="n">
-        <v>63.96548259066266</v>
+        <v>0.6074895297741564</v>
       </c>
       <c r="D13" t="n">
-        <v>70.28832120075337</v>
+        <v>0.6619036734947118</v>
       </c>
     </row>
   </sheetData>
